--- a/FIT3003/Take-home-quiz/two-column.xlsx
+++ b/FIT3003/Take-home-quiz/two-column.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sjsa3\Documents\GitHub\year3_sem2\FIT3003\Take-home-quiz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95C4E0E7-D8BC-475F-87A9-6E3F551CEC30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F2372EE-67B3-47A1-BED0-174E2A9E16B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{3E000B8D-CF51-4FA0-B1C6-07D830CE211F}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
   <si>
     <t>Insight 2</t>
   </si>
@@ -110,6 +110,18 @@
   </si>
   <si>
     <t>Dog_s3</t>
+  </si>
+  <si>
+    <t>Service</t>
+  </si>
+  <si>
+    <t>Pet</t>
+  </si>
+  <si>
+    <t>Serv1</t>
+  </si>
+  <si>
+    <t>Dog</t>
   </si>
 </sst>
 </file>
@@ -524,8 +536,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD347085-94F7-42A7-92F0-1D3480E91EA1}">
   <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -533,7 +545,7 @@
     <col min="1" max="1" width="39.08984375" style="10" customWidth="1"/>
     <col min="2" max="2" width="18.7265625" style="1" customWidth="1"/>
     <col min="3" max="3" width="31.08984375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.7265625" style="1"/>
+    <col min="4" max="4" width="19.36328125" style="1" customWidth="1"/>
     <col min="5" max="5" width="22.54296875" style="1" customWidth="1"/>
     <col min="6" max="7" width="8.7265625" style="1"/>
     <col min="8" max="8" width="18.08984375" style="1" customWidth="1"/>
@@ -752,6 +764,15 @@
       <c r="C25" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="E25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B26" s="4">
@@ -760,18 +781,37 @@
       <c r="C26" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="E26" s="4">
+        <v>1000</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B27" s="4">
         <v>12323</v>
       </c>
       <c r="C27" s="2"/>
+      <c r="E27" s="4">
+        <v>12323</v>
+      </c>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B28" s="4">
         <v>1200</v>
       </c>
       <c r="C28" s="2"/>
+      <c r="E28" s="4">
+        <v>1200</v>
+      </c>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B29" s="5"/>
